--- a/2020-03-23-Germany-Covid19-Prediction.xlsx
+++ b/2020-03-23-Germany-Covid19-Prediction.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -926,34 +926,6 @@
         <v>465736</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2">
-        <v>43923</v>
-      </c>
-      <c r="C34">
-        <v>32</v>
-      </c>
-      <c r="D34">
-        <v>609906</v>
-      </c>
-      <c r="E34">
-        <v>603453</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
-        <v>43924</v>
-      </c>
-      <c r="C35">
-        <v>33</v>
-      </c>
-      <c r="D35">
-        <v>792181</v>
-      </c>
-      <c r="E35">
-        <v>781329</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
